--- a/tableauE4.xlsx
+++ b/tableauE4.xlsx
@@ -1,43 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fc\fcproduction\files_vol\task\65f87e6a2d0f7341eac5affa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64D8FDAE-F71D-476B-85B9-A783943A52E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="16800" windowHeight="9760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$21</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
   <si>
-    <t>SESSION 2023</t>
-  </si>
-  <si>
     <t>Tableau de synthèse des réalisations professionnelles</t>
   </si>
   <si>
     <t>NOM et prénom :  Saujot Quentin</t>
-  </si>
-  <si>
-    <t>N° candidat :</t>
   </si>
   <si>
     <t>Centre de formation : CNED Poitiers</t>
@@ -122,9 +115,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>AP1 : évolution dun site web (Symfony) avec qualité de code, accès avec authentification (Keycloak), tests unitaire et fonctionnels, référencement, mise en ligne du site, de la BDD et du serveur Keycloak : mise à disposition des formations  de la médiathèque Mediatek86 (code source, BDD, tests unitaires et fonctionnels, documentation technique, documentation utilisateur)</t>
-  </si>
-  <si>
     <t>AP3 : évolution d'une application de bureau en C# avec qualité de code, accès avec authentification, tests unitaires et fonctionnels, logs, mise en ligne de la BDD, création d'un installeur : gestion des documents de la médiathèque Mediatek86 (code source, BDD, tests unitaires et fonctionnels, fichier de logs, documentation technique, documentation utilisateur)</t>
   </si>
   <si>
@@ -153,6 +143,12 @@
   </si>
   <si>
     <t>Gestion de ticket d’anomalies de problèmes de code HTML (hébergé sur GitLab) sur une application web</t>
+  </si>
+  <si>
+    <t>N° candidat : 02341321320</t>
+  </si>
+  <si>
+    <t>SESSION 2024</t>
   </si>
 </sst>
 </file>
@@ -525,6 +521,18 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -533,18 +541,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -552,22 +548,22 @@
     <cellStyle name="Accent 1" xfId="8"/>
     <cellStyle name="Accent 2" xfId="9"/>
     <cellStyle name="Accent 3" xfId="10"/>
-    <cellStyle name="Bad" xfId="4" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Default" xfId="11"/>
     <cellStyle name="Error" xfId="12"/>
     <cellStyle name="Euro" xfId="13"/>
     <cellStyle name="Footnote" xfId="14"/>
-    <cellStyle name="Good" xfId="3" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading" xfId="15"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="16"/>
-    <cellStyle name="Neutral" xfId="5" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="4" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="5" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="6" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Result" xfId="17"/>
+    <cellStyle name="Satisfaisant" xfId="3" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Status" xfId="18"/>
     <cellStyle name="Text" xfId="19"/>
+    <cellStyle name="Titre 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="2" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Warning" xfId="20"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -883,146 +879,146 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ32"/>
+  <dimension ref="A1:AQ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="71.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
-    <col min="3" max="8" width="18.90625" style="1" customWidth="1"/>
-    <col min="9" max="43" width="11.6328125" customWidth="1"/>
-    <col min="44" max="44" width="10.81640625" style="1" customWidth="1"/>
-    <col min="45" max="16384" width="10.81640625" style="1"/>
+    <col min="1" max="1" width="71.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="8" width="18.85546875" style="1" customWidth="1"/>
+    <col min="9" max="43" width="11.5703125" customWidth="1"/>
+    <col min="44" max="44" width="10.85546875" style="1" customWidth="1"/>
+    <col min="45" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.75" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:13" ht="40.5" customHeight="1">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" ht="39.75" customHeight="1">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="1:13" ht="39.75" customHeight="1">
-      <c r="A3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="39.75" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:13" ht="90" customHeight="1">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="90" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="324.75" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="324.75" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:13" s="7" customFormat="1" ht="18">
+      <c r="A7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" s="7" customFormat="1" ht="45">
+      <c r="A8" s="8" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="7" customFormat="1" ht="18">
-      <c r="A7" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:13" s="7" customFormat="1" ht="42">
-      <c r="A8" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
@@ -1031,244 +1027,222 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="7" customFormat="1" ht="84">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="7" customFormat="1" ht="90">
       <c r="A9" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" s="7" customFormat="1" ht="15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" s="7" customFormat="1" ht="18">
+      <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" s="7" customFormat="1" ht="84">
-      <c r="A10" s="8" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:13" s="7" customFormat="1" ht="45">
+      <c r="A12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" s="7" customFormat="1" ht="30">
+      <c r="A13" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:13" s="7" customFormat="1" ht="14">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:13" s="7" customFormat="1" ht="18">
-      <c r="A12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="1:13" s="7" customFormat="1" ht="42">
-      <c r="A13" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:13" s="7" customFormat="1" ht="14">
+    <row r="14" spans="1:13" s="7" customFormat="1" ht="45">
       <c r="A14" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:13" s="7" customFormat="1" ht="42">
-      <c r="A15" s="8" t="s">
-        <v>31</v>
+    <row r="15" spans="1:13" s="7" customFormat="1" ht="30">
+      <c r="A15" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:13" s="7" customFormat="1" ht="28">
-      <c r="A16" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="7" customFormat="1" ht="15">
+      <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="7" customFormat="1" ht="14">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" s="7" customFormat="1" ht="18">
-      <c r="A18" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="1:8" s="7" customFormat="1" ht="28">
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="7" customFormat="1" ht="18">
+      <c r="A17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" s="7" customFormat="1" ht="30">
+      <c r="A18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="7" customFormat="1" ht="30">
       <c r="A19" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" ht="28">
+    <row r="20" spans="1:8" s="7" customFormat="1" ht="30">
       <c r="A20" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" s="7" customFormat="1" ht="28">
-      <c r="A21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" s="7" customFormat="1" ht="14">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:8" customFormat="1" ht="12.5"/>
-    <row r="24" spans="1:8" customFormat="1" ht="12.5"/>
-    <row r="25" spans="1:8" customFormat="1" ht="12.5"/>
-    <row r="26" spans="1:8" customFormat="1" ht="12.5"/>
-    <row r="27" spans="1:8" customFormat="1" ht="12.5"/>
-    <row r="28" spans="1:8" customFormat="1" ht="12.5"/>
-    <row r="29" spans="1:8" customFormat="1" ht="12.5"/>
-    <row r="30" spans="1:8" customFormat="1" ht="12.5"/>
-    <row r="31" spans="1:8" customFormat="1" ht="12.5"/>
-    <row r="32" spans="1:8" customFormat="1" ht="12.5"/>
+    <row r="21" spans="1:8" s="7" customFormat="1" ht="15">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" customFormat="1"/>
+    <row r="23" spans="1:8" customFormat="1"/>
+    <row r="24" spans="1:8" customFormat="1"/>
+    <row r="25" spans="1:8" customFormat="1"/>
+    <row r="26" spans="1:8" customFormat="1"/>
+    <row r="27" spans="1:8" customFormat="1"/>
+    <row r="28" spans="1:8" customFormat="1"/>
+    <row r="29" spans="1:8" customFormat="1"/>
+    <row r="30" spans="1:8" customFormat="1"/>
+    <row r="31" spans="1:8" customFormat="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A17:H17"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19645669291338586" right="0.19645669291338586" top="0.59015748031496074" bottom="0.59015748031496074" header="0.19645669291338586" footer="0.19645669291338586"/>
